--- a/test/filter_edge_color/6/hough_image_grayscale_edge_threshold_accumulator.xlsx
+++ b/test/filter_edge_color/6/hough_image_grayscale_edge_threshold_accumulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\test\filter_edge_color\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0DB096-3183-4F9A-927E-58C11F579EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26255805-B4E1-4AE1-B907-DD3A6C3253DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28590" yWindow="60" windowWidth="17430" windowHeight="13905" xr2:uid="{B7A5A75E-6D17-4C0E-888B-99C58A6BDA44}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{B7A5A75E-6D17-4C0E-888B-99C58A6BDA44}"/>
   </bookViews>
   <sheets>
     <sheet name="hough_image_grayscale_edge_thre" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -468,6 +468,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -513,9 +528,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -561,7 +577,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,6 +585,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,6 +614,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -598,7 +644,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -934,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4F9CA0-4D9A-46D4-95CD-2FAF901B6B11}">
   <dimension ref="A1:AW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="825" ySplit="585" topLeftCell="L10" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="825" ySplit="585" topLeftCell="E16" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AI34" sqref="AI34"/>
+      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6075,7 +6121,7 @@
       <c r="T35">
         <v>17046</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="2">
         <v>20481</v>
       </c>
       <c r="V35">
@@ -6084,7 +6130,7 @@
       <c r="W35">
         <v>7315</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="2">
         <v>16944</v>
       </c>
       <c r="Y35">
@@ -10039,16 +10085,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AW61">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>42000</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>20000</formula>
+      <formula>30000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>40000</formula>
       <formula>30000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>42000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>20000</formula>
-      <formula>30000</formula>
+      <formula>15000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
